--- a/user_actions_report.xlsx
+++ b/user_actions_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,33 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Просмотрено расписание</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-06-11 12:16:55</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_actions_report.xlsx
+++ b/user_actions_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3430,6 +3430,600 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Просмотрено расписание</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:46:55</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Произведён поиск</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:49:24</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Экспорт полного анализа расписания</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:49:33</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Добавлен выходной: 2025-06-09</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:50:02</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Добавлено мероприятие: 123</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:56:53</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Добавлено мероприятие: 123</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-06-20 15:56:57</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Добавлен выходной: 2025-06-30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:05:06</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Произошла сортировка</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:07:33</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Произошла сортировка</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:08:59</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Произведён поиск</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:09:03</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Произведён поиск</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-06-20 16:09:15</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Просмотрено расписание</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-06-21 08:36:43</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Удалён выходной ID: 1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-06-21 08:36:49</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Удалён выходной ID: 2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-06-21 08:36:51</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Удалено мероприятие ID: 1</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-06-21 08:39:09</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Удалено мероприятие ID: 2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-06-21 08:39:12</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Добавлена группа: 123</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:03:44</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Удалена группа ID: 13</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:03:53</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Добавлена группа: 123</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:04:06</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Добавлена группа: 1</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:04:13</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Удалена группа ID: 14</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:04:17</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Удалена группа ID: 15</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-06-21 09:04:19</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
